--- a/Docs/Addressbook.xlsx
+++ b/Docs/Addressbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipathAdmin\OneDrive - Moedog, Inc\Workspace\UiPath\KakaoTalk\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipathAdmin\Documents\UiPath\COVID19KakaoTalk\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80465F8-F8D5-4F00-8B12-0F731F5E219C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A6AAF-A9C5-4724-A4AC-3022E39F5D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="2805" windowWidth="28800" windowHeight="15593" xr2:uid="{7F070602-DE0D-4637-ACC1-389950ECF7F7}"/>
+    <workbookView xWindow="1882" yWindow="4808" windowWidth="19673" windowHeight="13829" xr2:uid="{7F070602-DE0D-4637-ACC1-389950ECF7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>등록여부</t>
-  </si>
-  <si>
     <t>홍길동</t>
   </si>
   <si>
@@ -54,6 +42,18 @@
   </si>
   <si>
     <t>01011149921</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="D2" sqref="D2 D2"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" outlineLevelRow="1"/>
@@ -470,33 +470,33 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" outlineLevel="1">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>

--- a/Docs/Addressbook.xlsx
+++ b/Docs/Addressbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipathAdmin\Documents\UiPath\COVID19KakaoTalk\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Duong\Documents\UiPath\COVID19KakaoTalk\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A6AAF-A9C5-4724-A4AC-3022E39F5D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F200E2-AA99-4E94-9505-77714910FFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1882" yWindow="4808" windowWidth="19673" windowHeight="13829" xr2:uid="{7F070602-DE0D-4637-ACC1-389950ECF7F7}"/>
+    <workbookView xWindow="-23700" yWindow="3555" windowWidth="20775" windowHeight="11835" xr2:uid="{7F070602-DE0D-4637-ACC1-389950ECF7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Employee Email</t>
+  </si>
   <si>
     <t>홍길동</t>
   </si>
@@ -42,18 +60,6 @@
   </si>
   <si>
     <t>01011149921</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -451,128 +457,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014FC77D-68FB-4CE9-8C95-0975527BA2F8}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="D2" sqref="D2 D2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.53125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="1">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" outlineLevel="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" outlineLevel="1">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="29" spans="2:3" s="3" customFormat="1"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="29" spans="2:4" s="3" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Addressbook.xlsx
+++ b/Docs/Addressbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipathAdmin\Documents\UiPath\COVID19KakaoTalk\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A6AAF-A9C5-4724-A4AC-3022E39F5D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DD088-FA33-47EE-AF15-B8B60E51441F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1882" yWindow="4808" windowWidth="19673" windowHeight="13829" xr2:uid="{7F070602-DE0D-4637-ACC1-389950ECF7F7}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{7F070602-DE0D-4637-ACC1-389950ECF7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>홍길동</t>
-  </si>
-  <si>
     <t>01012349992</t>
   </si>
   <si>
-    <t>성춘향</t>
-  </si>
-  <si>
     <t>01011149921</t>
   </si>
   <si>
@@ -54,6 +48,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Don Jone</t>
+  </si>
+  <si>
+    <t>Jane</t>
   </si>
 </sst>
 </file>
@@ -456,47 +456,47 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="D2" sqref="D2 D2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.53125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" outlineLevel="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
